--- a/4_aviation/saf_lca/data/data.xlsx
+++ b/4_aviation/saf_lca/data/data.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/saf_lca/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4864F5A-17A6-BE40-8F30-EAD00B92CC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFBCF31-06BC-D04B-AD40-A578BCA72CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{C7F8723C-A813-D548-BEB2-235568B59163}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="6" xr2:uid="{C7F8723C-A813-D548-BEB2-235568B59163}"/>
   </bookViews>
   <sheets>
     <sheet name="CO2 Bio-Cellulose Fuel" sheetId="1" r:id="rId1"/>
     <sheet name="Availability Bio-Cellulose Fuel" sheetId="4" r:id="rId2"/>
     <sheet name="Cost Bio-Cellulose Fuel" sheetId="5" r:id="rId3"/>
-    <sheet name="CO2 Bio-SugarStarch Fuel" sheetId="3" r:id="rId4"/>
-    <sheet name="CO2 Bio-Oil Fuel" sheetId="2" r:id="rId5"/>
+    <sheet name="CO2 Bio-Oil Fuel" sheetId="2" r:id="rId4"/>
+    <sheet name="Availability Bio-Oil Fuel" sheetId="6" r:id="rId5"/>
+    <sheet name="Cost Bio-Oil Fuel" sheetId="7" r:id="rId6"/>
+    <sheet name="CO2 Bio-SugarStarch Fuel" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="52">
   <si>
     <t>feedstock type</t>
   </si>
@@ -189,6 +191,15 @@
   </si>
   <si>
     <t>cellulosic cover crops</t>
+  </si>
+  <si>
+    <t>waste and residue lipids</t>
+  </si>
+  <si>
+    <t>oil trees on degraded land</t>
+  </si>
+  <si>
+    <t>oil-cover crops</t>
   </si>
 </sst>
 </file>
@@ -868,7 +879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368C8BF3-9C89-E447-BFED-2A3DA4043F7E}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -956,11 +967,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37547F3C-805F-8C44-A490-A6F266AC8229}">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0F825A-9220-DF41-9C18-65E46C6E1618}">
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -983,224 +994,258 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1">
-        <v>29.3</v>
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>22.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1">
-        <v>23.8</v>
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>13.9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>64.900000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="1">
-        <v>31.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1">
-        <v>33.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E7">
+        <v>67.400000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>66.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>73.400000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>99.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1">
-        <v>77.900000000000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1">
-        <v>85.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1">
-        <v>-10.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1">
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="1">
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1">
-        <v>28.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="1">
-        <v>48.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="1">
-        <v>34.299999999999997</v>
+      <c r="E13">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="1">
-        <v>36.1</v>
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>22.1</v>
       </c>
     </row>
   </sheetData>
@@ -1209,11 +1254,179 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0F825A-9220-DF41-9C18-65E46C6E1618}">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF77B6DB-5E2A-994C-B837-AFAD868DCFBC}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView zoomScale="139" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2">
+        <v>33.715596330275098</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>74.174311926605597</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4">
+        <v>60.688073394495497</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{5C6E4891-CE97-1048-AA49-E2A54EBD640E}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{7DDAC7C7-5D90-984C-9F22-CE4ACC58793A}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{FC489BB6-5C45-7841-B555-EC0AA591F733}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A73B4D5-63E5-DC47-821F-43AE801B5F55}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2025</v>
+      </c>
+      <c r="B2">
+        <v>1408.53658536585</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2030</v>
+      </c>
+      <c r="B3">
+        <v>1426.8292682926799</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2040</v>
+      </c>
+      <c r="B4">
+        <v>1786.58536585365</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2050</v>
+      </c>
+      <c r="B5">
+        <v>2054.8780487804802</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{E5717D4B-FFDE-1841-AB34-F71621CCF440}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{809F0F19-B344-FD48-AACF-1E4A8FF2D4DE}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{B8B41484-8412-6345-A172-062CF47BFC4E}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{2C9BED57-B56D-BD45-B834-8314577731CB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37547F3C-805F-8C44-A490-A6F266AC8229}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1236,258 +1449,224 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2">
-        <v>22.5</v>
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1">
+        <v>29.3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>13.9</v>
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1">
+        <v>23.8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>20.7</v>
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1">
+        <v>31.3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <v>17.2</v>
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1">
+        <v>33.1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E6">
-        <v>64.900000000000006</v>
+      <c r="E6" s="1">
+        <v>77.900000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-10.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1">
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>67.400000000000006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>66.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>71.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <v>73.400000000000006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>99.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13">
-        <v>13</v>
+      <c r="E13" s="1">
+        <v>34.299999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14">
-        <v>21.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15">
-        <v>28.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16">
-        <v>22.1</v>
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1">
+        <v>36.1</v>
       </c>
     </row>
   </sheetData>
